--- a/biology/Médecine/Abraham_Gesner/Abraham_Gesner.xlsx
+++ b/biology/Médecine/Abraham_Gesner/Abraham_Gesner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Pineo Gesner (2 mai 1797 à Cornwallis, en Nouvelle-Écosse, Canada –- 29 avril 1864 à Halifax, Nouvelle-Écosse) est un médecin et un géologue qui devint le principal fondateur de l'industrie pétrolière moderne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout en pratiquant la médecine, Gesner continua à entretenir sa passion pour la géologie. En 1836, il publia une étude sur la minéralogie de la Nouvelle-Écosse, qui incluait une carte géologique détaillée donnant des informations sur les principales réserves de charbon et de fer en Nouvelle-Écosse. En 1838, il fut nommé géologue provincial pour le Nouveau-Brunswick avec pour mission d'effectuer un relevé géologique semblable. En faisant ses recherches, il découvrit en 1839 l'albertite, qu'il nomma d'après le comté d'Albert, où elle fut trouvée.
 En 1842, Gesner ouvrit le Musée Gesner, à Saint-Jean, au Nouveau-Brunswick, premier musée public du Canada. Ce musée devint plus tard le prestigieux Musée du Nouveau-Brunswick.
